--- a/results/mod2.galtan_corrupt.galtan.eff.COMB.xlsx
+++ b/results/mod2.galtan_corrupt.galtan.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0193475453520612</v>
+        <v>-0.0193454951390684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0351067868031337</v>
+        <v>0.0351067913612041</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0881555830991293</v>
+        <v>-0.0881535418197903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.049460492395007</v>
+        <v>0.0494625515416534</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.551105558607664</v>
+        <v>-0.551047087728069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.581561315164224</v>
+        <v>0.581601395864792</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.118821308745658</v>
+        <v>-0.118823638336153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0345368611605457</v>
+        <v>0.0345368842226257</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.186512312759388</v>
+        <v>-0.186514687550729</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0511303047319285</v>
+        <v>-0.0511325891215774</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.44042002523951</v>
+        <v>-3.44048518013996</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000580812058647158</v>
+        <v>0.000580672236059038</v>
       </c>
     </row>
   </sheetData>
